--- a/projects/uploaded_file.xlsx
+++ b/projects/uploaded_file.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work document\Temp\homework\projects\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="16720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="16725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="方案限制" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="方案B" sheetId="3" r:id="rId3"/>
     <sheet name="方案C" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="35">
   <si>
     <t>折现率</t>
   </si>
@@ -67,12 +72,6 @@
     <t xml:space="preserve">    总投资</t>
   </si>
   <si>
-    <t>182.40</t>
-  </si>
-  <si>
-    <t>127.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">    经营成本</t>
   </si>
   <si>
@@ -88,21 +87,12 @@
     <t>人均消费</t>
   </si>
   <si>
-    <t>总固定投资</t>
-  </si>
-  <si>
-    <t>单位变动成本</t>
-  </si>
-  <si>
     <t>方案B1</t>
   </si>
   <si>
     <t>方案B2</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
     <t>方案C1</t>
   </si>
   <si>
@@ -113,21 +103,51 @@
   </si>
   <si>
     <t xml:space="preserve">    所得税</t>
+  </si>
+  <si>
+    <t>万元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>171.44</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>187.58</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,151 +163,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,194 +191,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -547,255 +252,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,62 +283,30 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1133,21 +564,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +584,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1164,33 +593,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.4615384615385" customWidth="1"/>
-    <col min="2" max="2" width="8.46153846153846" customWidth="1"/>
-    <col min="3" max="3" width="10.3076923076923" customWidth="1"/>
-    <col min="4" max="7" width="7.69230769230769" customWidth="1"/>
-    <col min="16" max="16" width="22.4615384615385" customWidth="1"/>
-    <col min="17" max="17" width="8.46153846153846" customWidth="1"/>
-    <col min="18" max="18" width="10.3076923076923" customWidth="1"/>
-    <col min="19" max="22" width="7.69230769230769" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="7" width="7.75" customWidth="1"/>
+    <col min="16" max="16" width="22.5" customWidth="1"/>
+    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="18" width="10.25" customWidth="1"/>
+    <col min="19" max="22" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:17">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1218,8 +646,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1232,7 +660,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="10"/>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1246,8 +674,8 @@
       <c r="U3" s="4"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +694,7 @@
       <c r="G4" s="5">
         <v>5</v>
       </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1286,63 +714,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7">
-        <f>B6+B7+B8</f>
+        <f t="shared" ref="B5:G5" si="0">B6+B7+B8</f>
         <v>0</v>
       </c>
       <c r="C5" s="7">
-        <f>C6+C7+C8</f>
+        <f t="shared" si="0"/>
         <v>816</v>
       </c>
       <c r="D5" s="7">
-        <f>D6+D7+D8</f>
+        <f t="shared" si="0"/>
         <v>816</v>
       </c>
       <c r="E5" s="7">
-        <f>E6+E7+E8</f>
+        <f t="shared" si="0"/>
         <v>816</v>
       </c>
       <c r="F5" s="7">
-        <f>F6+F7+F8</f>
+        <f t="shared" si="0"/>
         <v>816</v>
       </c>
       <c r="G5" s="7">
-        <f>G6+G7+G8</f>
-        <v>854</v>
+        <f t="shared" si="0"/>
+        <v>928.25</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="7">
-        <f>Q6+Q7+Q8</f>
+        <f t="shared" ref="Q5:V5" si="1">Q6+Q7+Q8</f>
         <v>0</v>
       </c>
       <c r="R5" s="7">
-        <f>R6+R7+R8</f>
+        <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="S5" s="7">
-        <f>S6+S7+S8</f>
+        <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="T5" s="7">
-        <f>T6+T7+T8</f>
+        <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="U5" s="7">
-        <f>U6+U7+U8</f>
+        <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="V5" s="7">
-        <f>V6+V7+V8</f>
+        <f t="shared" si="1"/>
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +810,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1406,7 +834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1416,7 +844,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7">
-        <v>23</v>
+        <v>97.25</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>13</v>
@@ -1430,68 +858,68 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="7">
-        <f>B10+B11+B12</f>
-        <v>182.4</v>
+        <f t="shared" ref="B9:G9" si="2">B10+B11+B12</f>
+        <v>292.61</v>
       </c>
       <c r="C9" s="7">
-        <f>C10+C11+C12</f>
-        <v>661.37</v>
+        <f t="shared" si="2"/>
+        <v>678.46600000000001</v>
       </c>
       <c r="D9" s="7">
-        <f>D10+D11+D12</f>
-        <v>669.09</v>
+        <f t="shared" si="2"/>
+        <v>678.46600000000001</v>
       </c>
       <c r="E9" s="7">
-        <f>E10+E11+E12</f>
-        <v>676.91</v>
+        <f t="shared" si="2"/>
+        <v>678.46600000000001</v>
       </c>
       <c r="F9" s="7">
-        <f>F10+F11+F12</f>
-        <v>687.95</v>
+        <f t="shared" si="2"/>
+        <v>678.46600000000001</v>
       </c>
       <c r="G9" s="7">
-        <f>G10+G11+G12</f>
-        <v>696.99</v>
+        <f t="shared" si="2"/>
+        <v>678.46600000000001</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="Q9" s="7">
-        <f>Q10+Q11+Q12</f>
-        <v>127.4</v>
+        <f t="shared" ref="Q9:V9" si="3">Q10+Q11+Q12</f>
+        <v>187.58</v>
       </c>
       <c r="R9" s="7">
-        <f>R10+R11+R12</f>
-        <v>355.19</v>
+        <f t="shared" si="3"/>
+        <v>363.97999999999996</v>
       </c>
       <c r="S9" s="7">
-        <f>S10+S11+S12</f>
-        <v>358.87</v>
+        <f t="shared" si="3"/>
+        <v>363.97999999999996</v>
       </c>
       <c r="T9" s="7">
-        <f>T10+T11+T12</f>
-        <v>362.77</v>
+        <f t="shared" si="3"/>
+        <v>363.97999999999996</v>
       </c>
       <c r="U9" s="7">
-        <f>U10+U11+U12</f>
-        <v>369.29</v>
+        <f t="shared" si="3"/>
+        <v>363.97999999999996</v>
       </c>
       <c r="V9" s="7">
-        <f>V10+V11+V12</f>
-        <v>373.96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>363.97999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>16</v>
+      <c r="B10" s="8">
+        <v>292.61</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1502,7 +930,7 @@
         <v>15</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -1510,196 +938,224 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
-        <v>620.98</v>
+        <v>643.78</v>
       </c>
       <c r="D11" s="7">
-        <v>631.28</v>
+        <v>643.78</v>
       </c>
       <c r="E11" s="7">
-        <v>641.71</v>
+        <v>643.78</v>
       </c>
       <c r="F11" s="7">
-        <v>656.43</v>
+        <v>643.78</v>
       </c>
       <c r="G11" s="7">
-        <v>668.48</v>
+        <v>643.78</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="7">
-        <v>334.08</v>
+        <v>345.78</v>
       </c>
       <c r="S11" s="7">
-        <v>338.98</v>
+        <v>345.78</v>
       </c>
       <c r="T11" s="7">
-        <v>344.19</v>
+        <v>345.78</v>
       </c>
       <c r="U11" s="7">
-        <v>352.88</v>
+        <v>345.78</v>
       </c>
       <c r="V11" s="7">
-        <v>359.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>345.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="9">
-        <v>40.39</v>
+        <v>34.686</v>
       </c>
       <c r="D12" s="9">
-        <v>37.81</v>
+        <v>34.686</v>
       </c>
       <c r="E12" s="9">
-        <v>35.2</v>
+        <v>34.686</v>
       </c>
       <c r="F12" s="9">
-        <v>31.52</v>
+        <v>34.686</v>
       </c>
       <c r="G12" s="9">
-        <v>28.51</v>
+        <v>34.686</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="9">
-        <v>21.11</v>
+        <v>18.2</v>
       </c>
       <c r="S12" s="9">
-        <v>19.89</v>
+        <v>18.2</v>
       </c>
       <c r="T12" s="9">
-        <v>18.58</v>
+        <v>18.2</v>
       </c>
       <c r="U12" s="9">
-        <v>16.41</v>
+        <v>18.2</v>
       </c>
       <c r="V12" s="9">
-        <v>14.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="7">
         <f>B6+B7+B8-B10-B11-B12</f>
-        <v>-182.4</v>
+        <v>-292.61</v>
       </c>
       <c r="C13" s="7">
         <f>C6+C7+C8-C10-C11-C12</f>
-        <v>154.63</v>
+        <v>137.53400000000002</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" ref="C13:G13" si="0">D6+D7+D8-D10-D11-D12</f>
-        <v>146.91</v>
+        <f t="shared" ref="D13:G13" si="4">D6+D7+D8-D10-D11-D12</f>
+        <v>137.53400000000002</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>139.09</v>
+        <f t="shared" si="4"/>
+        <v>137.53400000000002</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>128.05</v>
+        <f t="shared" si="4"/>
+        <v>137.53400000000002</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>157.01</v>
+        <f t="shared" si="4"/>
+        <v>249.78400000000002</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7">
         <f>Q6+Q7+Q8-Q10-Q11-Q12</f>
-        <v>-127.4</v>
+        <v>-187.58</v>
       </c>
       <c r="R13" s="7">
         <f>R6+R7+R8-R10-R11-R12</f>
-        <v>86.81</v>
+        <v>78.020000000000024</v>
       </c>
       <c r="S13" s="7">
-        <f t="shared" ref="R13:V13" si="1">S6+S7+S8-S10-S11-S12</f>
-        <v>83.13</v>
+        <f t="shared" ref="S13:V13" si="5">S6+S7+S8-S10-S11-S12</f>
+        <v>78.020000000000024</v>
       </c>
       <c r="T13" s="7">
-        <f t="shared" si="1"/>
-        <v>79.23</v>
+        <f t="shared" si="5"/>
+        <v>78.020000000000024</v>
       </c>
       <c r="U13" s="7">
-        <f t="shared" si="1"/>
-        <v>72.71</v>
+        <f t="shared" si="5"/>
+        <v>78.020000000000024</v>
       </c>
       <c r="V13" s="7">
-        <f t="shared" si="1"/>
-        <v>101.04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <f t="shared" si="5"/>
+        <v>111.02000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>6.8</v>
       </c>
+      <c r="C16" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="P16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>120</v>
       </c>
+      <c r="C17" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="P17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q17">
         <v>130</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>643.78</v>
-      </c>
-      <c r="P18" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18">
-        <v>345.78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>87</v>
-      </c>
-      <c r="P19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19">
-        <v>66</v>
+      <c r="R17" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="13">
+        <f>方案A!C11+方案A!C12</f>
+        <v>678.46600000000001</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>方案A!R11+方案A!R12</f>
+        <v>363.97999999999996</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="13">
+        <f>B18-240</f>
+        <v>438.46600000000001</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="13">
+        <f>Q18-144</f>
+        <v>219.97999999999996</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1707,60 +1163,47 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="P3:P4"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.4615384615385" customWidth="1"/>
-    <col min="2" max="2" width="8.46153846153846" customWidth="1"/>
-    <col min="3" max="3" width="10.3076923076923" customWidth="1"/>
-    <col min="4" max="7" width="7.69230769230769" customWidth="1"/>
-    <col min="16" max="16" width="22.4615384615385" customWidth="1"/>
-    <col min="17" max="17" width="8.46153846153846" customWidth="1"/>
-    <col min="18" max="18" width="10.3076923076923" customWidth="1"/>
-    <col min="19" max="22" width="7.69230769230769" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="7" width="7.75" customWidth="1"/>
+    <col min="16" max="16" width="22.5" customWidth="1"/>
+    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="18" width="10.25" customWidth="1"/>
+    <col min="19" max="22" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:17">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
+        <v>21</v>
+      </c>
       <c r="P1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1774,8 +1217,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1788,7 +1231,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="10"/>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1802,8 +1245,8 @@
       <c r="U3" s="4"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1265,7 @@
       <c r="G4" s="5">
         <v>5</v>
       </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1842,7 +1285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1895,10 +1338,10 @@
       </c>
       <c r="V5" s="7">
         <f t="shared" si="1"/>
-        <v>644.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>644.95000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1938,7 +1381,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1972,7 +1415,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7">
-        <v>77.4</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>13</v>
@@ -1986,16 +1429,16 @@
         <v>67.95</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="7">
-        <f t="shared" ref="B9:G9" si="2">B10+B11+B12</f>
-        <v>224</v>
+        <f>B10+B11+B12</f>
+        <v>316.54000000000002</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C9:G9" si="2">C10+C11+C12</f>
         <v>552</v>
       </c>
       <c r="D9" s="7">
@@ -2019,35 +1462,35 @@
       </c>
       <c r="Q9" s="7">
         <f t="shared" ref="Q9:V9" si="3">Q10+Q11+Q12</f>
-        <v>97</v>
+        <v>171.44</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="3"/>
-        <v>462.23</v>
+        <v>462.29</v>
       </c>
       <c r="S9" s="7">
         <f t="shared" si="3"/>
-        <v>462.23</v>
+        <v>462.29</v>
       </c>
       <c r="T9" s="7">
         <f t="shared" si="3"/>
-        <v>462.23</v>
+        <v>462.29</v>
       </c>
       <c r="U9" s="7">
         <f t="shared" si="3"/>
-        <v>462.23</v>
+        <v>462.29</v>
       </c>
       <c r="V9" s="7">
         <f t="shared" si="3"/>
-        <v>462.23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>462.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="8">
-        <v>224</v>
+        <v>316.54000000000002</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2058,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -2066,103 +1509,93 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
-        <v>464.4</v>
+        <v>489.8</v>
       </c>
       <c r="D11" s="7">
-        <v>464.4</v>
+        <v>489.8</v>
       </c>
       <c r="E11" s="7">
-        <v>464.4</v>
+        <v>489.8</v>
       </c>
       <c r="F11" s="7">
-        <v>464.4</v>
+        <v>489.8</v>
       </c>
       <c r="G11" s="7">
-        <v>464.4</v>
+        <v>489.8</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="7">
-        <v>407.7</v>
+        <v>426.81</v>
       </c>
       <c r="S11" s="7">
-        <v>407.7</v>
+        <v>426.81</v>
       </c>
       <c r="T11" s="7">
-        <v>407.7</v>
+        <v>426.81</v>
       </c>
       <c r="U11" s="7">
-        <v>407.7</v>
+        <v>426.81</v>
       </c>
       <c r="V11" s="7">
-        <v>407.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>426.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="9">
-        <f>62.2+25.4</f>
-        <v>87.6</v>
+        <v>62.2</v>
       </c>
       <c r="D12" s="9">
-        <f>62.2+25.4</f>
-        <v>87.6</v>
+        <v>62.2</v>
       </c>
       <c r="E12" s="9">
-        <f>62.2+25.4</f>
-        <v>87.6</v>
+        <v>62.2</v>
       </c>
       <c r="F12" s="9">
-        <f>62.2+25.4</f>
-        <v>87.6</v>
+        <v>62.2</v>
       </c>
       <c r="G12" s="9">
-        <f>62.2+25.4</f>
-        <v>87.6</v>
+        <v>62.2</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="9">
-        <f>35.48+19.05</f>
-        <v>54.53</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="S12" s="9">
-        <f>35.48+19.05</f>
-        <v>54.53</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="T12" s="9">
-        <f>35.48+19.05</f>
-        <v>54.53</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="U12" s="9">
-        <f>35.48+19.05</f>
-        <v>54.53</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="V12" s="9">
-        <f>35.48+19.05</f>
-        <v>54.53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>35.479999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="7">
         <f t="shared" ref="B13:G13" si="4">B6+B7+B8-B10-B11-B12</f>
-        <v>-224</v>
+        <v>-316.54000000000002</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="4"/>
@@ -2182,144 +1615,121 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="4"/>
-        <v>291.4</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7">
         <f t="shared" ref="Q13:V13" si="5">Q6+Q7+Q8-Q10-Q11-Q12</f>
-        <v>-97</v>
+        <v>-171.44</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="5"/>
-        <v>104.77</v>
+        <v>104.71000000000001</v>
       </c>
       <c r="S13" s="7">
         <f t="shared" si="5"/>
-        <v>104.77</v>
+        <v>104.71000000000001</v>
       </c>
       <c r="T13" s="7">
         <f t="shared" si="5"/>
-        <v>104.77</v>
+        <v>104.71000000000001</v>
       </c>
       <c r="U13" s="7">
         <f t="shared" si="5"/>
-        <v>104.77</v>
+        <v>104.71000000000001</v>
       </c>
       <c r="V13" s="7">
         <f t="shared" si="5"/>
-        <v>182.72</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1" spans="1:17">
+        <v>182.66000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="B16" s="13">
         <v>7.2</v>
       </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
+      <c r="C16" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="P16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="13">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:17">
+      <c r="R16" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="B17" s="13">
         <v>105</v>
       </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
+      <c r="C17" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="P17" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="13">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:17">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>489.8</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18">
-        <v>426.8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:17">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>95</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19">
-        <v>78</v>
+      <c r="R17" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="13">
+        <f>方案B!C11+方案B!C12</f>
+        <v>552</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>方案B!R11+方案B!R12</f>
+        <v>462.29</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="13">
+        <f>B18-(18.9*12)</f>
+        <v>325.20000000000005</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="13">
+        <f>Q18-(14.17*12)</f>
+        <v>292.25</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2327,47 +1737,46 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="P3:P4"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.4615384615385" customWidth="1"/>
-    <col min="2" max="2" width="8.38461538461539" customWidth="1"/>
-    <col min="3" max="3" width="10.3076923076923" customWidth="1"/>
-    <col min="4" max="7" width="9.15384615384615" customWidth="1"/>
-    <col min="16" max="16" width="22.4615384615385" customWidth="1"/>
-    <col min="17" max="17" width="8.46153846153846" customWidth="1"/>
-    <col min="18" max="18" width="10.3076923076923" customWidth="1"/>
-    <col min="19" max="22" width="7.69230769230769" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="7" width="9.125" customWidth="1"/>
+    <col min="16" max="16" width="22.5" customWidth="1"/>
+    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="18" width="10.25" customWidth="1"/>
+    <col min="19" max="22" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:17">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2381,8 +1790,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2395,7 +1804,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="10"/>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -2409,8 +1818,8 @@
       <c r="U3" s="4"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2429,7 +1838,7 @@
       <c r="G4" s="5">
         <v>5</v>
       </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2449,7 +1858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -2505,7 +1914,7 @@
         <v>773.72</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -2545,7 +1954,7 @@
         <v>680.4</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -2569,7 +1978,7 @@
         <v>88.32</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2593,13 +2002,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="7">
         <f t="shared" ref="B9:G9" si="2">B10+B11+B12</f>
-        <v>259.46</v>
+        <v>259.45999999999998</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="2"/>
@@ -2630,31 +2039,31 @@
       </c>
       <c r="R9" s="7">
         <f t="shared" si="3"/>
-        <v>594.85</v>
+        <v>594.84999999999991</v>
       </c>
       <c r="S9" s="7">
         <f t="shared" si="3"/>
-        <v>594.85</v>
+        <v>594.84999999999991</v>
       </c>
       <c r="T9" s="7">
         <f t="shared" si="3"/>
-        <v>594.85</v>
+        <v>594.84999999999991</v>
       </c>
       <c r="U9" s="7">
         <f t="shared" si="3"/>
-        <v>594.85</v>
+        <v>594.84999999999991</v>
       </c>
       <c r="V9" s="7">
         <f t="shared" si="3"/>
-        <v>594.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>594.84999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="8">
-        <v>259.46</v>
+        <v>259.45999999999998</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2665,7 +2074,7 @@
         <v>15</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -2673,9 +2082,9 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
@@ -2694,28 +2103,28 @@
         <v>734.76</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="7">
-        <v>529.92</v>
+        <v>529.91999999999996</v>
       </c>
       <c r="S11" s="7">
-        <v>529.92</v>
+        <v>529.91999999999996</v>
       </c>
       <c r="T11" s="7">
-        <v>529.92</v>
+        <v>529.91999999999996</v>
       </c>
       <c r="U11" s="7">
-        <v>529.92</v>
+        <v>529.91999999999996</v>
       </c>
       <c r="V11" s="7">
-        <v>529.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>529.91999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="9">
@@ -2739,60 +2148,60 @@
         <v>112.89</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="9">
         <f t="shared" ref="R12:V12" si="5">38.1+26.83</f>
-        <v>64.93</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="S12" s="9">
         <f t="shared" si="5"/>
-        <v>64.93</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="T12" s="9">
         <f t="shared" si="5"/>
-        <v>64.93</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="U12" s="9">
         <f t="shared" si="5"/>
-        <v>64.93</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="5"/>
-        <v>64.93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>64.930000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="7">
         <f t="shared" ref="B13:G13" si="6">B6+B7+B8-B10-B11-B12</f>
-        <v>-259.46</v>
+        <v>-259.45999999999998</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="6"/>
-        <v>172.35</v>
+        <v>172.35000000000002</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="6"/>
-        <v>172.35</v>
+        <v>172.35000000000002</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="6"/>
-        <v>172.35</v>
+        <v>172.35000000000002</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="6"/>
-        <v>172.35</v>
+        <v>172.35000000000002</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="6"/>
-        <v>299.81</v>
+        <v>299.81000000000006</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7">
         <f t="shared" ref="Q13:V13" si="7">Q6+Q7+Q8-Q10-Q11-Q12</f>
@@ -2800,81 +2209,106 @@
       </c>
       <c r="R13" s="7">
         <f t="shared" si="7"/>
-        <v>85.55</v>
+        <v>85.550000000000011</v>
       </c>
       <c r="S13" s="7">
         <f t="shared" si="7"/>
-        <v>85.55</v>
+        <v>85.550000000000011</v>
       </c>
       <c r="T13" s="7">
         <f t="shared" si="7"/>
-        <v>85.55</v>
+        <v>85.550000000000011</v>
       </c>
       <c r="U13" s="7">
         <f t="shared" si="7"/>
-        <v>85.55</v>
+        <v>85.550000000000011</v>
       </c>
       <c r="V13" s="7">
         <f t="shared" si="7"/>
-        <v>178.87</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1" spans="1:17">
+        <v>178.87000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>6.8</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="14">
+        <v>12.75</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="P16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:17">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>8.51</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>120</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="14">
+        <v>80</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="P17" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:17">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>643.78</v>
-      </c>
-      <c r="P18" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18">
-        <v>345.78</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:17">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>87</v>
-      </c>
-      <c r="P19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>80</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="14">
+        <f>C11+C12</f>
+        <v>847.65</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="14">
+        <f>R11+R12</f>
+        <v>594.84999999999991</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="14">
+        <v>314.76</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="14">
+        <f>R11-(25*12)</f>
+        <v>229.91999999999996</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2882,7 +2316,8 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="P3:P4"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/projects/uploaded_file.xlsx
+++ b/projects/uploaded_file.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work document\Temp\homework\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work document\Temp\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="16725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="16725"/>
   </bookViews>
   <sheets>
     <sheet name="方案限制" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -602,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
